--- a/Trade-in.xlsx
+++ b/Trade-in.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10152D-5D33-413B-B9D6-60C8335E5C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{82DCA9F4-BA5D-4924-8188-33D20D815CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>Brand</t>
   </si>
@@ -63,18 +62,6 @@
     <t>LokasiTrade</t>
   </si>
   <si>
-    <t>DAIHATSU</t>
-  </si>
-  <si>
-    <t>AYLA</t>
-  </si>
-  <si>
-    <t>T:1.0 M A/T NEW</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
     <t>Bekas</t>
   </si>
   <si>
@@ -84,31 +71,43 @@
     <t>AGYA</t>
   </si>
   <si>
-    <t>1.2 G A/T NEW</t>
-  </si>
-  <si>
     <t>Baru</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>730 LI</t>
-  </si>
-  <si>
-    <t>A/T</t>
-  </si>
-  <si>
-    <t>T:1.0 X A/T NEW</t>
-  </si>
-  <si>
     <t>BrandTrade</t>
+  </si>
+  <si>
+    <t>T:1.2 G A/T NEW</t>
+  </si>
+  <si>
+    <t>DKI</t>
+  </si>
+  <si>
+    <t>FURTUNER</t>
+  </si>
+  <si>
+    <t>BANTUL1</t>
+  </si>
+  <si>
+    <t>KIJANG</t>
+  </si>
+  <si>
+    <t>T:1.8 SSX M/T</t>
+  </si>
+  <si>
+    <t>LIMO</t>
+  </si>
+  <si>
+    <t>T: 1.5 M/T</t>
+  </si>
+  <si>
+    <t>T: 2.4 GA/T DSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,25 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8044F5-6CB5-47CB-887C-5ACF3337C957}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -509,340 +508,199 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>2018</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1">
         <v>2018</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>111</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K7" s="1">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trade-in.xlsx
+++ b/Trade-in.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10152D-5D33-413B-B9D6-60C8335E5C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{82DCA9F4-BA5D-4924-8188-33D20D815CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Brand</t>
   </si>
@@ -62,6 +63,18 @@
     <t>LokasiTrade</t>
   </si>
   <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>AYLA</t>
+  </si>
+  <si>
+    <t>T:1.0 M A/T NEW</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
     <t>Bekas</t>
   </si>
   <si>
@@ -71,43 +84,31 @@
     <t>AGYA</t>
   </si>
   <si>
+    <t>1.2 G A/T NEW</t>
+  </si>
+  <si>
     <t>Baru</t>
   </si>
   <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>730 LI</t>
+  </si>
+  <si>
+    <t>A/T</t>
+  </si>
+  <si>
+    <t>T:1.0 X A/T NEW</t>
+  </si>
+  <si>
     <t>BrandTrade</t>
-  </si>
-  <si>
-    <t>T:1.2 G A/T NEW</t>
-  </si>
-  <si>
-    <t>DKI</t>
-  </si>
-  <si>
-    <t>FURTUNER</t>
-  </si>
-  <si>
-    <t>BANTUL1</t>
-  </si>
-  <si>
-    <t>KIJANG</t>
-  </si>
-  <si>
-    <t>T:1.8 SSX M/T</t>
-  </si>
-  <si>
-    <t>LIMO</t>
-  </si>
-  <si>
-    <t>T: 1.5 M/T</t>
-  </si>
-  <si>
-    <t>T: 2.4 GA/T DSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,25 +456,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8044F5-6CB5-47CB-887C-5ACF3337C957}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -508,199 +509,340 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="J4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2005</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>2018</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J5" s="1">
         <v>2018</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>222</v>
-      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trade-in.xlsx
+++ b/Trade-in.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10152D-5D33-413B-B9D6-60C8335E5C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E0DAC-1ABA-462B-9D89-7B33298802D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{82DCA9F4-BA5D-4924-8188-33D20D815CD8}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>Brand</t>
   </si>
@@ -63,18 +62,6 @@
     <t>LokasiTrade</t>
   </si>
   <si>
-    <t>DAIHATSU</t>
-  </si>
-  <si>
-    <t>AYLA</t>
-  </si>
-  <si>
-    <t>T:1.0 M A/T NEW</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
     <t>Bekas</t>
   </si>
   <si>
@@ -84,25 +71,22 @@
     <t>AGYA</t>
   </si>
   <si>
-    <t>1.2 G A/T NEW</t>
-  </si>
-  <si>
     <t>Baru</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>730 LI</t>
-  </si>
-  <si>
-    <t>A/T</t>
-  </si>
-  <si>
-    <t>T:1.0 X A/T NEW</t>
-  </si>
-  <si>
     <t>BrandTrade</t>
+  </si>
+  <si>
+    <t>T:1.0 G M/T</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>ALL NEW AVANZA</t>
+  </si>
+  <si>
+    <t>1.3 VELOZ A/T</t>
   </si>
 </sst>
 </file>
@@ -460,7 +444,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +453,7 @@
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -494,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -511,142 +495,142 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1">
         <v>2019</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="1">
         <v>2019</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
